--- a/src/DataSample.xlsx
+++ b/src/DataSample.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17830"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13860" windowHeight="7512"/>
   </bookViews>
   <sheets>
     <sheet name="Visits" sheetId="1" r:id="rId1"/>
     <sheet name="Feasible Packages" sheetId="4" r:id="rId2"/>
     <sheet name="Optimal Solution" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:N26"/>
 </workbook>
 </file>
 
@@ -400,9 +401,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -416,6 +414,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -758,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -886,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -911,30 +912,30 @@
       <c r="A1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12" t="s">
+      <c r="C1" s="17"/>
+      <c r="D1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12" t="s">
+      <c r="E1" s="17"/>
+      <c r="F1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12" t="s">
+      <c r="G1" s="17"/>
+      <c r="H1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12" t="s">
+      <c r="I1" s="17"/>
+      <c r="J1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12" t="s">
+      <c r="K1" s="17"/>
+      <c r="L1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="12"/>
+      <c r="M1" s="17"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
@@ -965,13 +966,13 @@
       <c r="J2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="12" t="s">
         <v>19</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="12" t="s">
         <v>19</v>
       </c>
     </row>
@@ -985,10 +986,10 @@
       <c r="C3" s="2">
         <v>108.41</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <v>102.1</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -1020,10 +1021,10 @@
       <c r="A4" s="11">
         <v>2</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="15">
         <v>99.23</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1032,10 +1033,10 @@
       <c r="E4" s="2">
         <v>95.95</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="15">
         <v>97.75</v>
       </c>
       <c r="H4" s="2" t="s">
@@ -1085,16 +1086,16 @@
       <c r="I5" s="2">
         <v>138.1</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="15">
         <v>92.95</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="L5" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="16">
+      <c r="M5" s="15">
         <v>123.5</v>
       </c>
     </row>
@@ -1293,13 +1294,13 @@
       <c r="J10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="16">
         <v>93.95</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="17">
+      <c r="M10" s="16">
         <v>97</v>
       </c>
     </row>
@@ -1334,13 +1335,13 @@
       <c r="J11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="16">
         <v>98.3</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="M11" s="17">
+      <c r="M11" s="16">
         <v>173</v>
       </c>
     </row>
@@ -1371,13 +1372,13 @@
       <c r="J12" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="16">
         <v>158.75</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="M12" s="17">
+      <c r="M12" s="16">
         <v>115</v>
       </c>
     </row>
@@ -1408,13 +1409,13 @@
       <c r="J13" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="K13" s="17">
+      <c r="K13" s="16">
         <v>156.65</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M13" s="17">
+      <c r="M13" s="16">
         <v>119.75</v>
       </c>
     </row>
@@ -1445,13 +1446,13 @@
       <c r="J14" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K14" s="16">
         <v>119.55</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="M14" s="17">
+      <c r="M14" s="16">
         <v>154</v>
       </c>
     </row>
@@ -1481,10 +1482,10 @@
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
-      <c r="L15" s="17" t="s">
+      <c r="L15" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="M15" s="17">
+      <c r="M15" s="16">
         <v>94</v>
       </c>
     </row>
@@ -1510,10 +1511,10 @@
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
-      <c r="L16" s="17" t="s">
+      <c r="L16" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="M16" s="17">
+      <c r="M16" s="16">
         <v>167</v>
       </c>
     </row>
@@ -1525,20 +1526,20 @@
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="16">
         <v>103.25</v>
       </c>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
-      <c r="L17" s="17" t="s">
+      <c r="L17" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="M17" s="17">
+      <c r="M17" s="16">
         <v>113.25</v>
       </c>
     </row>
@@ -1550,20 +1551,20 @@
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="16">
         <v>147</v>
       </c>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
-      <c r="L18" s="17" t="s">
+      <c r="L18" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="M18" s="17">
+      <c r="M18" s="16">
         <v>150</v>
       </c>
     </row>
@@ -1575,20 +1576,20 @@
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G19" s="16">
         <v>110.5</v>
       </c>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
-      <c r="L19" s="17" t="s">
+      <c r="L19" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="M19" s="17">
+      <c r="M19" s="16">
         <v>90.5</v>
       </c>
     </row>
@@ -1600,10 +1601,10 @@
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="16">
         <v>158.5</v>
       </c>
       <c r="H20" s="11"/>
